--- a/Algorithm/Practice8/time.xlsx
+++ b/Algorithm/Practice8/time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlska\Documents\junior_1semester\Algorithm\Practice8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE175D1-E88A-4273-B3A3-323777F3FFDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FC7667-A997-4FC5-ADD1-0D7CCB46A0B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E85C4082-6A61-4C88-9283-5C51B2809366}"/>
   </bookViews>
@@ -4164,7 +4164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72795C4F-81B2-4546-9ECC-431B03D8F247}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A40" sqref="A40:F45"/>
     </sheetView>
   </sheetViews>
